--- a/HSPDB.xlsx
+++ b/HSPDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Desktop\Sauvegarde Quaterco et CCCCompanion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531B5B1E-E170-46FF-BAE6-BA247B4323D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED631F7D-3F0E-414C-A909-7EE64992C584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="1080" windowWidth="26985" windowHeight="15735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>δD</t>
   </si>
@@ -49,16 +49,51 @@
   </si>
   <si>
     <t>HSP Handbook</t>
+  </si>
+  <si>
+    <t>Heptane</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1016/j.jchromb.2018.01.035 </t>
+  </si>
+  <si>
+    <t>Luteolin</t>
+  </si>
+  <si>
+    <t>Wedelolactone</t>
+  </si>
+  <si>
+    <t>Apigenin</t>
+  </si>
+  <si>
+    <t>Quercetin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,10 +148,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -125,8 +161,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,16 +443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -468,7 +506,114 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>15.3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>15.5</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>42.3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>20.6</v>
+      </c>
+      <c r="C6">
+        <v>9.1</v>
+      </c>
+      <c r="D6">
+        <v>10.8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C7">
+        <v>7.5</v>
+      </c>
+      <c r="D7">
+        <v>10.8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D8">
+        <v>13.5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>10.6</v>
+      </c>
+      <c r="D9">
+        <v>13.7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" display="https://doi.org/10.1016/j.jchromb.2018.01.035" xr:uid="{4E46495C-18E1-4412-9FA7-C09E2094CF75}"/>
+    <hyperlink ref="E7:E9" r:id="rId2" display="https://doi.org/10.1016/j.jchromb.2018.01.035" xr:uid="{E7B21B3C-5BFC-49C0-8089-2C8562FF93A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HSPDB.xlsx
+++ b/HSPDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Desktop\Sauvegarde Quaterco et CCCCompanion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED631F7D-3F0E-414C-A909-7EE64992C584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C14664-EDEE-4A83-8E48-DC83844F5DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>δD</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Quercetin</t>
+  </si>
+  <si>
+    <t>Resveratrol (Simulated)</t>
+  </si>
+  <si>
+    <t>Simulated - CosmoQuick QSPR</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,17 +142,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -158,10 +153,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -443,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,89 +461,89 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>15.8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>15.8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>5.3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>7.2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>15.3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>15.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>42.3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>20.6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>9.1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>10.8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -558,16 +551,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>7.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>10.8</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -575,16 +568,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>13.5</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -592,20 +585,37 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>10.6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>13.7</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>19.483000000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.5530000000000008</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15.297000000000001</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/HSPDB.xlsx
+++ b/HSPDB.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Desktop\Sauvegarde Quaterco et CCCCompanion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E29E5D-BB5C-4C3D-B04D-33ED430D9755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CBE764-4316-4CE4-BDA5-6F17822892AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="1348">
   <si>
     <t>δD</t>
   </si>
@@ -4080,6 +4091,12 @@
   </si>
   <si>
     <t>Ruben Manuel - HSP Website - Dr Díaz de los Ríos and Rubén Murcia Belmonte</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.seppur.2016.06.037</t>
+  </si>
+  <si>
+    <t>Resveratrol</t>
   </si>
 </sst>
 </file>
@@ -4171,8 +4188,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -4454,10 +4471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1369"/>
+  <dimension ref="A1:E1370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1350" workbookViewId="0">
-      <selection activeCell="E1369" sqref="E1369"/>
+    <sheetView tabSelected="1" topLeftCell="A1349" workbookViewId="0">
+      <selection activeCell="C1378" sqref="C1378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4637,16 +4654,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>14.5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>13.5</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -4654,16 +4671,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>19.2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>13.3</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>9.1</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -4671,16 +4688,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>19.3</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>11.1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -4688,16 +4705,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>18.2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>7.3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>6.4</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -4705,16 +4722,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>19.100000000000001</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>6.7</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>14.2</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -4722,16 +4739,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>5.2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>4.5</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -4739,16 +4756,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>19.100000000000001</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4756,16 +4773,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>15.7</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>4.8</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -4773,16 +4790,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>17.3</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>10</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>4.9000000000000004</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -4790,16 +4807,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>17.5</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>5.7</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>3.8</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -4807,16 +4824,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>16.7</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>3.4</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -4824,16 +4841,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>18.8</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>10.1</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -4841,16 +4858,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>5.6</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>12.7</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -4858,16 +4875,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>5</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>4.2</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -4875,16 +4892,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>4.8</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>10.8</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -4892,16 +4909,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>16.2</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>2.4</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>5.6</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -4909,16 +4926,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>9.4</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>11.7</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -4926,16 +4943,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>5.3</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -4943,16 +4960,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>5.7</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>5.8</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -4960,16 +4977,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>17.2</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>5.4</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>6.2</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -4980,13 +4997,13 @@
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>16.7</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>10.1</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>4.5999999999999996</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -4997,13 +5014,13 @@
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>16</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -5014,13 +5031,13 @@
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>6.2</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -5031,13 +5048,13 @@
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>15.5</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>5.6</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>5</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -5048,13 +5065,13 @@
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>15.5</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>3.2</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>5.9</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -5065,13 +5082,13 @@
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>15.9</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>3.3</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>11.8</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -5082,13 +5099,13 @@
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>15.8</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>4.2</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>5.8</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -5099,13 +5116,13 @@
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>7.1</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>11.6</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -5116,13 +5133,13 @@
       <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>16.3</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>4</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>9.3000000000000007</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -5133,13 +5150,13 @@
       <c r="A40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>17.7</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>7.9</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>13.9</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -5150,13 +5167,13 @@
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>14.9</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -5167,13 +5184,13 @@
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>16.8</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>5.2</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>4.3</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -5184,13 +5201,13 @@
       <c r="A43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>16.3</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <v>11.3</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -5201,13 +5218,13 @@
       <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>15.8</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <v>8.4</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>5.3</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -5218,13 +5235,13 @@
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>16.3</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>4.2</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>11.5</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -5235,13 +5252,13 @@
       <c r="A46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>15.9</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>5.8</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>12.5</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -5252,13 +5269,13 @@
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>16</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>6.7</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>13.4</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -5269,13 +5286,13 @@
       <c r="A48" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="3">
         <v>16.2</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>5.3</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>12.2</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -5286,10 +5303,10 @@
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>4.5</v>
       </c>
       <c r="D49" s="3">
@@ -5303,10 +5320,10 @@
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>19.8</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>8.1</v>
       </c>
       <c r="D50" s="3">
@@ -5320,10 +5337,10 @@
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>5.7</v>
       </c>
       <c r="D51" s="3">
@@ -5337,10 +5354,10 @@
       <c r="A52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="3">
         <v>15.7</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="3">
         <v>5.4</v>
       </c>
       <c r="D52" s="3">
@@ -5354,10 +5371,10 @@
       <c r="A53" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="D53" s="3">
@@ -5371,10 +5388,10 @@
       <c r="A54" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="3">
         <v>17.2</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="D54" s="3">
@@ -5388,10 +5405,10 @@
       <c r="A55" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="3">
         <v>17</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="3">
         <v>5.2</v>
       </c>
       <c r="D55" s="3">
@@ -5405,10 +5422,10 @@
       <c r="A56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="3">
         <v>17.2</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="3">
         <v>1.8</v>
       </c>
       <c r="D56" s="3">
@@ -5422,10 +5439,10 @@
       <c r="A57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="3">
         <v>16.7</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3">
         <v>2.8</v>
       </c>
       <c r="D57" s="3">
@@ -5439,10 +5456,10 @@
       <c r="A58" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="3">
         <v>15.9</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="3">
         <v>7.6</v>
       </c>
       <c r="D58" s="3">
@@ -5456,10 +5473,10 @@
       <c r="A59" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>15.7</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="3">
         <v>3.7</v>
       </c>
       <c r="D59" s="3">
@@ -5473,10 +5490,10 @@
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="3">
         <v>18.7</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="3">
         <v>10.7</v>
       </c>
       <c r="D60" s="3">
@@ -5490,10 +5507,10 @@
       <c r="A61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="3">
         <v>18.5</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="3">
         <v>7.9</v>
       </c>
       <c r="D61" s="3">
@@ -5507,10 +5524,10 @@
       <c r="A62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="3">
         <v>18.3</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="D62" s="3">
@@ -5524,10 +5541,10 @@
       <c r="A63" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="3">
         <v>4.9000000000000004</v>
       </c>
       <c r="D63" s="3">
@@ -5538,13 +5555,13 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="3">
         <v>16</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="3">
         <v>1.6</v>
       </c>
       <c r="D64" s="3">
@@ -5555,13 +5572,13 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="3">
         <v>16.3</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="D65" s="3">
@@ -5572,13 +5589,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="3">
         <v>1.9</v>
       </c>
       <c r="D66" s="3">
@@ -5589,13 +5606,13 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="3">
         <v>15.8</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="3">
         <v>3.2</v>
       </c>
       <c r="D67" s="3">
@@ -5606,13 +5623,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="3">
         <v>18.8</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="3">
         <v>7.6</v>
       </c>
       <c r="D68" s="3">
@@ -5623,13 +5640,13 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="3">
         <v>3</v>
       </c>
       <c r="D69" s="3">
@@ -5640,13 +5657,13 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="D70" s="3">
@@ -5657,13 +5674,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="3">
         <v>2.5</v>
       </c>
       <c r="D71" s="3">
@@ -5674,13 +5691,13 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="3">
         <v>17.5</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="3">
         <v>4.7</v>
       </c>
       <c r="D72" s="3">
@@ -5691,13 +5708,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="3">
         <v>14.7</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="3">
         <v>0</v>
       </c>
       <c r="D73" s="3">
@@ -5708,13 +5725,13 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="3">
         <v>17.2</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="3">
         <v>0</v>
       </c>
       <c r="D74" s="3">
@@ -5725,13 +5742,13 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="3">
         <v>0.8</v>
       </c>
       <c r="D75" s="3">
@@ -5742,13 +5759,13 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="3">
         <v>18</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="3">
         <v>0</v>
       </c>
       <c r="D76" s="3">
@@ -5759,13 +5776,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="3">
         <v>18.5</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="3">
         <v>4.5</v>
       </c>
       <c r="D77" s="3">
@@ -5776,13 +5793,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="3">
         <v>19.2</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="3">
         <v>7.9</v>
       </c>
       <c r="D78" s="3">
@@ -5793,13 +5810,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="3">
         <v>22.4</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="3">
         <v>14.1</v>
       </c>
       <c r="D79" s="3">
@@ -5810,13 +5827,13 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="3">
         <v>10.5</v>
       </c>
       <c r="D80" s="3">
@@ -5827,13 +5844,13 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="3">
         <v>9.6999999999999993</v>
       </c>
       <c r="D81" s="3">
@@ -5844,13 +5861,13 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="3">
         <v>18.2</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="3">
         <v>5.9</v>
       </c>
       <c r="D82" s="3">
@@ -5861,13 +5878,13 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="3">
         <v>17.7</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="3">
         <v>5</v>
       </c>
       <c r="D83" s="3">
@@ -5878,13 +5895,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="D84" s="3">
@@ -5895,13 +5912,13 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="3">
         <v>9.9</v>
       </c>
       <c r="D85" s="3">
@@ -5912,13 +5929,13 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="3">
         <v>18.2</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="3">
         <v>6.4</v>
       </c>
       <c r="D86" s="3">
@@ -5929,13 +5946,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="3">
         <v>10.5</v>
       </c>
       <c r="D87" s="3">
@@ -5946,13 +5963,13 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="D88" s="3">
@@ -5963,13 +5980,13 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="3">
         <v>17</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="3">
         <v>12.1</v>
       </c>
       <c r="D89" s="3">
@@ -5980,13 +5997,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="3">
         <v>3.1</v>
       </c>
       <c r="D90" s="3">
@@ -5997,13 +6014,13 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="3">
         <v>18</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="3">
         <v>9.3000000000000007</v>
       </c>
       <c r="D91" s="3">
@@ -6014,13 +6031,13 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="3">
         <v>16</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="3">
         <v>6</v>
       </c>
       <c r="D92" s="3">
@@ -6031,13 +6048,13 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="3">
         <v>17.2</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="3">
         <v>3</v>
       </c>
       <c r="D93" s="3">
@@ -6048,13 +6065,13 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="3">
         <v>19</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="3">
         <v>11</v>
       </c>
       <c r="D94" s="3">
@@ -6065,13 +6082,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="3">
         <v>17.2</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="3">
         <v>9.1999999999999993</v>
       </c>
       <c r="D95" s="3">
@@ -6082,13 +6099,13 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="3">
         <v>17.5</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="3">
         <v>8</v>
       </c>
       <c r="D96" s="3">
@@ -6099,13 +6116,13 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="3">
         <v>18</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="3">
         <v>3</v>
       </c>
       <c r="D97" s="3">
@@ -6116,13 +6133,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="3">
         <v>17</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="3">
         <v>10</v>
       </c>
       <c r="D98" s="3">
@@ -6133,13 +6150,13 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="3">
         <v>16.5</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="3">
         <v>9</v>
       </c>
       <c r="D99" s="3">
@@ -6150,13 +6167,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="3">
         <v>15</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="3">
         <v>17.2</v>
       </c>
       <c r="D100" s="3">
@@ -6167,13 +6184,13 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="3">
         <v>15.5</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="3">
         <v>13</v>
       </c>
       <c r="D101" s="3">
@@ -6184,13 +6201,13 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="3">
         <v>9.9</v>
       </c>
       <c r="D102" s="3">
@@ -27737,6 +27754,23 @@
       </c>
       <c r="E1369" s="3" t="s">
         <v>1345</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1370" s="6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1370" s="6">
+        <v>23.1</v>
+      </c>
+      <c r="C1370" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="D1370" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="E1370" s="6" t="s">
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
